--- a/data/trans_orig/Q5411-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5411-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>6488</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2871</v>
+        <v>2856</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13080</v>
+        <v>12778</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02217479985525583</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.009811210368742624</v>
+        <v>0.009762473841696474</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04470391253902854</v>
+        <v>0.04367272177678615</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>13</v>
@@ -765,19 +765,19 @@
         <v>12408</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7069</v>
+        <v>6835</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>20552</v>
+        <v>20664</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03618093795106281</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02061341903123439</v>
+        <v>0.0199317049436314</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0599305401514446</v>
+        <v>0.06025629784712012</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>20</v>
@@ -786,19 +786,19 @@
         <v>18896</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>12614</v>
+        <v>11653</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>28772</v>
+        <v>29310</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02973271090051468</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0198479424683184</v>
+        <v>0.01833556049956956</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0452738057504547</v>
+        <v>0.04611956073954662</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>286095</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>279503</v>
+        <v>279805</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>289712</v>
+        <v>289727</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9778252001447442</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9552960874609718</v>
+        <v>0.9563272782232137</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9901887896312574</v>
+        <v>0.9902375261583035</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>358</v>
@@ -836,19 +836,19 @@
         <v>330526</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>322382</v>
+        <v>322270</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>335865</v>
+        <v>336099</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9638190620489372</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9400694598485554</v>
+        <v>0.9397437021528798</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9793865809687655</v>
+        <v>0.9800682950563686</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>654</v>
@@ -857,19 +857,19 @@
         <v>616621</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>606745</v>
+        <v>606207</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>622903</v>
+        <v>623864</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9702672890994853</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9547261942495451</v>
+        <v>0.9538804392604533</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9801520575316816</v>
+        <v>0.9816644395004304</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>21443</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13709</v>
+        <v>14624</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>31152</v>
+        <v>31822</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1021677746170298</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06531621758893284</v>
+        <v>0.06967729385608418</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1484243611074017</v>
+        <v>0.1516194100504641</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>46</v>
@@ -982,19 +982,19 @@
         <v>52424</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>39485</v>
+        <v>38289</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>66397</v>
+        <v>66361</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1570015017433121</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1182496972466657</v>
+        <v>0.1146679749379471</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1988494557769714</v>
+        <v>0.1987390926896302</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>69</v>
@@ -1003,19 +1003,19 @@
         <v>73867</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>57686</v>
+        <v>58323</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>91532</v>
+        <v>91752</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1358377319466164</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1060805265329047</v>
+        <v>0.1072521929395216</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1683213088734704</v>
+        <v>0.1687257372967741</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>188440</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>178731</v>
+        <v>178061</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>196174</v>
+        <v>195259</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8978322253829701</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8515756388925984</v>
+        <v>0.8483805899495361</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9346837824110672</v>
+        <v>0.9303227061439159</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>244</v>
@@ -1053,19 +1053,19 @@
         <v>281484</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>267511</v>
+        <v>267547</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>294423</v>
+        <v>295619</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8429984982566879</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8011505442230287</v>
+        <v>0.8012609073103697</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8817503027533343</v>
+        <v>0.8853320250620528</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>441</v>
@@ -1074,19 +1074,19 @@
         <v>469924</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>452259</v>
+        <v>452039</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>486105</v>
+        <v>485468</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8641622680533836</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8316786911265297</v>
+        <v>0.8312742627032259</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8939194734670954</v>
+        <v>0.8927478070604785</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>27931</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>19530</v>
+        <v>20771</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>39046</v>
+        <v>39294</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0555883392534751</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03886796964585754</v>
+        <v>0.04133816264855964</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07770823723440244</v>
+        <v>0.07820261994036987</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>59</v>
@@ -1199,19 +1199,19 @@
         <v>64832</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>50093</v>
+        <v>49473</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>82171</v>
+        <v>82329</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09578562540648962</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0740095996793603</v>
+        <v>0.07309396344795066</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1214041902790307</v>
+        <v>0.1216372916765228</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>89</v>
@@ -1220,19 +1220,19 @@
         <v>92763</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>76038</v>
+        <v>73744</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>115124</v>
+        <v>110795</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07865882753380772</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06447693487442044</v>
+        <v>0.06253138657991597</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09762005563941829</v>
+        <v>0.09394901740388777</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>474535</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>463420</v>
+        <v>463172</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>482936</v>
+        <v>481695</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9444116607465249</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9222917627655975</v>
+        <v>0.92179738005963</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9611320303541424</v>
+        <v>0.9586618373514403</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>602</v>
@@ -1270,19 +1270,19 @@
         <v>612010</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>594671</v>
+        <v>594513</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>626749</v>
+        <v>627369</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9042143745935104</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8785958097209692</v>
+        <v>0.8783627083234772</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9259904003206396</v>
+        <v>0.9269060365520493</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1095</v>
@@ -1291,19 +1291,19 @@
         <v>1086545</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1064184</v>
+        <v>1068513</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1103270</v>
+        <v>1105564</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9213411724661923</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9023799443605817</v>
+        <v>0.9060509825961123</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9355230651255796</v>
+        <v>0.937468613420084</v>
       </c>
     </row>
     <row r="12">
@@ -1633,19 +1633,19 @@
         <v>17432</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9782</v>
+        <v>10318</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>26996</v>
+        <v>28229</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05627241325813779</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03157709919830292</v>
+        <v>0.03330777656503087</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08714481783714913</v>
+        <v>0.09112418017549109</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>24</v>
@@ -1654,19 +1654,19 @@
         <v>24654</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>16212</v>
+        <v>16666</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>35860</v>
+        <v>36843</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06964368520536331</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04579655410160251</v>
+        <v>0.04708007453993705</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1012997419383033</v>
+        <v>0.104078021979924</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>40</v>
@@ -1675,19 +1675,19 @@
         <v>42086</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>30636</v>
+        <v>31143</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>55115</v>
+        <v>57673</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06340333196975899</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04615300125508445</v>
+        <v>0.04691706967987814</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08303104251099229</v>
+        <v>0.0868848991799689</v>
       </c>
     </row>
     <row r="5">
@@ -1704,19 +1704,19 @@
         <v>292354</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>282790</v>
+        <v>281557</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>300004</v>
+        <v>299468</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9437275867418622</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9128551821628509</v>
+        <v>0.9088758198245087</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.968422900801697</v>
+        <v>0.9666922234349691</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>320</v>
@@ -1725,19 +1725,19 @@
         <v>329342</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>318136</v>
+        <v>317153</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>337784</v>
+        <v>337330</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9303563147946367</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8987002580616971</v>
+        <v>0.8959219780200762</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9542034458983981</v>
+        <v>0.9529199254600631</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>586</v>
@@ -1746,19 +1746,19 @@
         <v>621696</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>608667</v>
+        <v>606109</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>633146</v>
+        <v>632639</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.936596668030241</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9169689574890076</v>
+        <v>0.9131151008200302</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9538469987449155</v>
+        <v>0.9530829303201209</v>
       </c>
     </row>
     <row r="6">
@@ -1850,19 +1850,19 @@
         <v>44024</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>32066</v>
+        <v>31735</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>58640</v>
+        <v>58349</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1762000794315661</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1283413712339039</v>
+        <v>0.1270154014976969</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2346979308089221</v>
+        <v>0.2335343456070555</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>125</v>
@@ -1871,19 +1871,19 @@
         <v>138429</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>120462</v>
+        <v>119351</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>158519</v>
+        <v>159705</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3558768031010383</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3096882873773393</v>
+        <v>0.3068306294309362</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.407525657083933</v>
+        <v>0.4105755735295423</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>162</v>
@@ -1892,19 +1892,19 @@
         <v>182452</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>160327</v>
+        <v>158029</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>209202</v>
+        <v>209026</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2856039711775208</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2509701056037929</v>
+        <v>0.247373259308788</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3274767007964709</v>
+        <v>0.3272009296031815</v>
       </c>
     </row>
     <row r="8">
@@ -1921,19 +1921,19 @@
         <v>205827</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>191211</v>
+        <v>191502</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>217785</v>
+        <v>218116</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8237999205684339</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7653020691910779</v>
+        <v>0.7664656543929443</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8716586287660958</v>
+        <v>0.872984598502303</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>225</v>
@@ -1942,19 +1942,19 @@
         <v>250550</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>230460</v>
+        <v>229274</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>268517</v>
+        <v>269628</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6441231968989618</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5924743429160667</v>
+        <v>0.5894244264704577</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6903117126226606</v>
+        <v>0.6931693705690638</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>410</v>
@@ -1963,19 +1963,19 @@
         <v>456378</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>429628</v>
+        <v>429804</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>478503</v>
+        <v>480801</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7143960288224792</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.672523299203529</v>
+        <v>0.6727990703968184</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.749029894396207</v>
+        <v>0.7526267406912119</v>
       </c>
     </row>
     <row r="9">
@@ -2067,19 +2067,19 @@
         <v>61456</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>47343</v>
+        <v>46468</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>78238</v>
+        <v>78774</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1098143124118763</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08459532589505496</v>
+        <v>0.08303290123879449</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1398022012955537</v>
+        <v>0.1407599269943047</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>149</v>
@@ -2088,19 +2088,19 @@
         <v>163082</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>140252</v>
+        <v>140867</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>188361</v>
+        <v>186359</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2194988910981649</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1887713790346695</v>
+        <v>0.1895989342097891</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2535231795977625</v>
+        <v>0.2508277677813896</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>202</v>
@@ -2109,19 +2109,19 @@
         <v>224538</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>196770</v>
+        <v>196079</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>257598</v>
+        <v>251238</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1723754568658039</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.151058225364264</v>
+        <v>0.150527808993669</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1977546614099388</v>
+        <v>0.192872365741617</v>
       </c>
     </row>
     <row r="11">
@@ -2138,19 +2138,19 @@
         <v>498181</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>481399</v>
+        <v>480863</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>512294</v>
+        <v>513169</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8901856875881238</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8601977987044463</v>
+        <v>0.8592400730056953</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.915404674104945</v>
+        <v>0.9169670987612046</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>545</v>
@@ -2159,19 +2159,19 @@
         <v>579893</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>554614</v>
+        <v>556616</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>602723</v>
+        <v>602108</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7805011089018351</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7464768204022371</v>
+        <v>0.7491722322186104</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8112286209653304</v>
+        <v>0.8104010657902107</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>996</v>
@@ -2180,19 +2180,19 @@
         <v>1078074</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1045014</v>
+        <v>1051374</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1105842</v>
+        <v>1106533</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8276245431341961</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8022453385900613</v>
+        <v>0.8071276342583831</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8489417746357361</v>
+        <v>0.8494721910063311</v>
       </c>
     </row>
     <row r="12">
@@ -2522,19 +2522,19 @@
         <v>13517</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7807</v>
+        <v>7886</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23849</v>
+        <v>22173</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04043047020688136</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02335244916962166</v>
+        <v>0.02358862512048759</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07133449405361615</v>
+        <v>0.06632015560209262</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>14</v>
@@ -2543,19 +2543,19 @@
         <v>15219</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8607</v>
+        <v>8505</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>26644</v>
+        <v>23909</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04028692037931132</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02278415895771415</v>
+        <v>0.02251520833827498</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07053043658511934</v>
+        <v>0.06329010129119041</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>27</v>
@@ -2564,19 +2564,19 @@
         <v>28736</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>19641</v>
+        <v>20421</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>41522</v>
+        <v>40943</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04035431758866551</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02758192344445807</v>
+        <v>0.02867748074643341</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05830930840204854</v>
+        <v>0.05749616970638052</v>
       </c>
     </row>
     <row r="5">
@@ -2593,19 +2593,19 @@
         <v>320813</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>310481</v>
+        <v>312157</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>326523</v>
+        <v>326444</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9595695297931186</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9286655059463839</v>
+        <v>0.9336798443979075</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9766475508303786</v>
+        <v>0.9764113748795126</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>340</v>
@@ -2614,19 +2614,19 @@
         <v>362543</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>351118</v>
+        <v>353853</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>369155</v>
+        <v>369257</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9597130796206886</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9294695634148806</v>
+        <v>0.9367098987088096</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9772158410422859</v>
+        <v>0.9774847916617251</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>652</v>
@@ -2635,19 +2635,19 @@
         <v>683356</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>670570</v>
+        <v>671149</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>692451</v>
+        <v>691671</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9596456824113345</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9416906915979519</v>
+        <v>0.9425038302936185</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.972418076555542</v>
+        <v>0.9713225192535665</v>
       </c>
     </row>
     <row r="6">
@@ -2739,19 +2739,19 @@
         <v>34338</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>25345</v>
+        <v>24829</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45296</v>
+        <v>45034</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1336100792694032</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09862017683240831</v>
+        <v>0.09661139701485268</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1762495419658191</v>
+        <v>0.1752327215073552</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>66</v>
@@ -2760,19 +2760,19 @@
         <v>87467</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>69359</v>
+        <v>69667</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>108092</v>
+        <v>106082</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2185761476813689</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1733244398573469</v>
+        <v>0.1740937773981023</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2701159083831173</v>
+        <v>0.2650941592029353</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>106</v>
@@ -2781,19 +2781,19 @@
         <v>121805</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>102739</v>
+        <v>102134</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>147375</v>
+        <v>144637</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1853485058129266</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1563361014264024</v>
+        <v>0.1554159244252484</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2242584255267813</v>
+        <v>0.2200913556803939</v>
       </c>
     </row>
     <row r="8">
@@ -2810,19 +2810,19 @@
         <v>222660</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>211702</v>
+        <v>211964</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>231653</v>
+        <v>232169</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8663899207305968</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8237504580341811</v>
+        <v>0.8247672784926443</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9013798231675918</v>
+        <v>0.9033886029851467</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>235</v>
@@ -2831,19 +2831,19 @@
         <v>312702</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>292077</v>
+        <v>294087</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>330810</v>
+        <v>330502</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7814238523186311</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7298840916168827</v>
+        <v>0.7349058407970649</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8266755601426531</v>
+        <v>0.8259062226018977</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>497</v>
@@ -2852,19 +2852,19 @@
         <v>535362</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>509792</v>
+        <v>512530</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>554428</v>
+        <v>555033</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8146514941870734</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7757415744732186</v>
+        <v>0.7799086443196059</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8436638985735975</v>
+        <v>0.8445840755747517</v>
       </c>
     </row>
     <row r="9">
@@ -2956,19 +2956,19 @@
         <v>47855</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>35629</v>
+        <v>36871</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>61593</v>
+        <v>60684</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08092740812815294</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06025195846788279</v>
+        <v>0.06235300748886257</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1041605946827333</v>
+        <v>0.1026239027605478</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>80</v>
@@ -2977,19 +2977,19 @@
         <v>102686</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>83512</v>
+        <v>83197</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>126356</v>
+        <v>124541</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1319991951454119</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1073519070056086</v>
+        <v>0.106947112790993</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1624260812438831</v>
+        <v>0.1600931636468324</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>133</v>
@@ -2998,19 +2998,19 @@
         <v>150541</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>125630</v>
+        <v>127556</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>174981</v>
+        <v>176448</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.109943340389356</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09175044759974234</v>
+        <v>0.0931573116247299</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1277922320330952</v>
+        <v>0.1288639567938087</v>
       </c>
     </row>
     <row r="11">
@@ -3027,19 +3027,19 @@
         <v>543473</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>529735</v>
+        <v>530644</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>555699</v>
+        <v>554457</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9190725918718471</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.895839405317267</v>
+        <v>0.897376097239452</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9397480415321174</v>
+        <v>0.9376469925111373</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>575</v>
@@ -3048,19 +3048,19 @@
         <v>675245</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>651575</v>
+        <v>653390</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>694419</v>
+        <v>694734</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8680008048545881</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8375739187561168</v>
+        <v>0.839906836353168</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8926480929943913</v>
+        <v>0.8930528872090071</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1149</v>
@@ -3069,19 +3069,19 @@
         <v>1218718</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1194278</v>
+        <v>1192811</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1243629</v>
+        <v>1241703</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.890056659610644</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8722077679669049</v>
+        <v>0.8711360432061913</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9082495524002576</v>
+        <v>0.9068426883752702</v>
       </c>
     </row>
     <row r="12">
@@ -3411,19 +3411,19 @@
         <v>10319</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5878</v>
+        <v>6041</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>16954</v>
+        <v>16958</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0253487817536781</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0144403059304274</v>
+        <v>0.01483915022799906</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04164697839737428</v>
+        <v>0.04165739155663637</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>31</v>
@@ -3432,19 +3432,19 @@
         <v>16632</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>12134</v>
+        <v>11242</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>23421</v>
+        <v>22773</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03794194822389586</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02767981579345916</v>
+        <v>0.02564537261352907</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05342816184212713</v>
+        <v>0.05195103997682175</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>47</v>
@@ -3453,19 +3453,19 @@
         <v>26951</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>20510</v>
+        <v>20069</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>36246</v>
+        <v>34879</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03187830766874625</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02426017122852986</v>
+        <v>0.02373758780331757</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04287299819863485</v>
+        <v>0.04125514826492783</v>
       </c>
     </row>
     <row r="5">
@@ -3482,19 +3482,19 @@
         <v>396761</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>390126</v>
+        <v>390122</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>401202</v>
+        <v>401039</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9746512182463217</v>
+        <v>0.9746512182463218</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9583530216026256</v>
+        <v>0.9583426084433647</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9855596940695727</v>
+        <v>0.9851608497720009</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>794</v>
@@ -3503,19 +3503,19 @@
         <v>421725</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>414936</v>
+        <v>415584</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>426223</v>
+        <v>427115</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.962058051776104</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9465718381578726</v>
+        <v>0.9480489600231777</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9723201842065406</v>
+        <v>0.9743546273864711</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1348</v>
@@ -3524,19 +3524,19 @@
         <v>818485</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>809190</v>
+        <v>810557</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>824926</v>
+        <v>825367</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9681216923312537</v>
+        <v>0.9681216923312538</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9571270018013651</v>
+        <v>0.9587448517350722</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.97573982877147</v>
+        <v>0.9762624121966825</v>
       </c>
     </row>
     <row r="6">
@@ -3628,19 +3628,19 @@
         <v>42660</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>33543</v>
+        <v>33541</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>54546</v>
+        <v>54068</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1379187689206086</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.10844513995485</v>
+        <v>0.1084377784269769</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1763466579249481</v>
+        <v>0.1748011333569157</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>218</v>
@@ -3649,19 +3649,19 @@
         <v>113223</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>99573</v>
+        <v>99455</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>127070</v>
+        <v>126648</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2440341130673183</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2146149762321078</v>
+        <v>0.2143594638142597</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2738799764025403</v>
+        <v>0.2729714520474106</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>281</v>
@@ -3670,19 +3670,19 @@
         <v>155883</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>140279</v>
+        <v>138843</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>174652</v>
+        <v>172566</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.2015876916495574</v>
+        <v>0.2015876916495573</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1814095344780143</v>
+        <v>0.1795521376717685</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2258603486931371</v>
+        <v>0.2231626621559425</v>
       </c>
     </row>
     <row r="8">
@@ -3699,19 +3699,19 @@
         <v>266652</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>254766</v>
+        <v>255244</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>275769</v>
+        <v>275771</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8620812310793915</v>
+        <v>0.8620812310793914</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8236533420750523</v>
+        <v>0.8251988666430844</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8915548600451501</v>
+        <v>0.891562221573023</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>662</v>
@@ -3720,19 +3720,19 @@
         <v>350739</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>336892</v>
+        <v>337314</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>364389</v>
+        <v>364507</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7559658869326817</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7261200235974596</v>
+        <v>0.7270285479525896</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7853850237678922</v>
+        <v>0.7856405361857405</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1056</v>
@@ -3741,19 +3741,19 @@
         <v>617391</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>598622</v>
+        <v>600708</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>632995</v>
+        <v>634431</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7984123083504424</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.774139651306863</v>
+        <v>0.7768373378440576</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8185904655219858</v>
+        <v>0.8204478623282313</v>
       </c>
     </row>
     <row r="9">
@@ -3845,19 +3845,19 @@
         <v>52979</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>42726</v>
+        <v>42359</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>66351</v>
+        <v>67031</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0739523874943054</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05964070459100219</v>
+        <v>0.05912828813131468</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09261803392365449</v>
+        <v>0.09356806555638179</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>249</v>
@@ -3866,19 +3866,19 @@
         <v>129855</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>116761</v>
+        <v>115115</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>148098</v>
+        <v>144750</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1439122116459985</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1294008848245739</v>
+        <v>0.1275765045815893</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1641301226709646</v>
+        <v>0.1604196063153727</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>328</v>
@@ -3887,19 +3887,19 @@
         <v>182834</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>162780</v>
+        <v>166131</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>203725</v>
+        <v>205279</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1129501476590319</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1005615215150202</v>
+        <v>0.1026318704573405</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1258563108702813</v>
+        <v>0.1268162523731188</v>
       </c>
     </row>
     <row r="11">
@@ -3916,19 +3916,19 @@
         <v>663412</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>650040</v>
+        <v>649360</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>673665</v>
+        <v>674032</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9260476125056946</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9073819660763454</v>
+        <v>0.9064319344436181</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9403592954089977</v>
+        <v>0.9408717118686852</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1456</v>
@@ -3937,19 +3937,19 @@
         <v>772464</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>754221</v>
+        <v>757569</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>785558</v>
+        <v>787204</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8560877883540016</v>
+        <v>0.8560877883540017</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8358698773290354</v>
+        <v>0.8395803936846271</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8705991151754261</v>
+        <v>0.8724234954184106</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2404</v>
@@ -3958,19 +3958,19 @@
         <v>1435876</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1414985</v>
+        <v>1413431</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1455930</v>
+        <v>1452579</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8870498523409683</v>
+        <v>0.8870498523409682</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8741436891297188</v>
+        <v>0.8731837476268811</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8994384784849798</v>
+        <v>0.8973681295426595</v>
       </c>
     </row>
     <row r="12">
